--- a/data/trans_bre/P2A_enfcro_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 24,03</t>
+          <t>-3,29; 23,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 22,89</t>
+          <t>-1,96; 23,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 28,91</t>
+          <t>2,66; 29,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -1,83</t>
+          <t>-10,86; -1,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 55,53</t>
+          <t>-5,2; 53,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 39,4</t>
+          <t>-2,8; 40,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 69,71</t>
+          <t>5,93; 71,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,85</t>
+          <t>-10,86; -1,92</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,61; 19,14</t>
+          <t>6,88; 18,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 14,76</t>
+          <t>2,56; 14,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 17,16</t>
+          <t>4,87; 16,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,88</t>
+          <t>-0,72; 3,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,37; 43,54</t>
+          <t>13,81; 42,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 26,27</t>
+          <t>4,17; 25,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,06; 34,46</t>
+          <t>8,98; 34,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,1</t>
+          <t>-0,75; 3,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 20,29</t>
+          <t>11,6; 20,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 21,02</t>
+          <t>12,05; 20,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,08; 19,08</t>
+          <t>9,63; 18,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,71</t>
+          <t>-2,19; 0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,35; 44,98</t>
+          <t>23,36; 46,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,0; 40,89</t>
+          <t>21,14; 40,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 40,25</t>
+          <t>18,42; 38,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,73</t>
+          <t>-2,24; 0,83</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 19,47</t>
+          <t>8,75; 18,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 22,74</t>
+          <t>11,78; 22,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 16,09</t>
+          <t>5,77; 15,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,37</t>
+          <t>-1,48; 3,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 43,86</t>
+          <t>17,61; 42,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,39; 48,99</t>
+          <t>22,22; 46,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,7; 36,23</t>
+          <t>11,49; 36,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,61</t>
+          <t>-1,53; 3,57</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,76; 20,57</t>
+          <t>11,67; 20,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,93</t>
+          <t>5,97; 14,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,32</t>
+          <t>3,55; 12,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -0,66</t>
+          <t>-7,66; -0,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,56; 47,71</t>
+          <t>24,42; 47,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 27,02</t>
+          <t>9,78; 27,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 24,01</t>
+          <t>6,32; 24,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -0,7</t>
+          <t>-7,99; -0,55</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,43</t>
+          <t>12,44; 17,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 15,86</t>
+          <t>11,25; 16,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,58</t>
+          <t>8,81; 13,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,29</t>
+          <t>-2,24; 0,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,23; 38,34</t>
+          <t>25,89; 37,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,8; 29,4</t>
+          <t>19,69; 29,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,48; 27,46</t>
+          <t>16,8; 27,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,3</t>
+          <t>-2,3; 0,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_enfcro_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,21%</t>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 23,58</t>
+          <t>8,92; 19,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 23,09</t>
+          <t>3,81; 13,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 29,18</t>
+          <t>6,08; 17,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -1,92</t>
+          <t>-8,22; 7,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 53,83</t>
+          <t>18,2; 44,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 40,21</t>
+          <t>6,12; 24,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 71,98</t>
+          <t>11,35; 35,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -1,92</t>
+          <t>-19,47; 20,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,33</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>16,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,69</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>53,44%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 18,49</t>
+          <t>12,44; 21,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 14,16</t>
+          <t>12,28; 20,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 16,58</t>
+          <t>10,41; 19,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,67</t>
+          <t>6,24; 29,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 42,1</t>
+          <t>26,44; 50,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 25,33</t>
+          <t>22,24; 42,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 34,01</t>
+          <t>20,15; 40,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,87</t>
+          <t>17,05; 189,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>15,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,7</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>52,21%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 20,75</t>
+          <t>9,86; 20,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 20,7</t>
+          <t>12,22; 22,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,41</t>
+          <t>6,17; 16,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,81</t>
+          <t>1,09; 40,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,36; 46,38</t>
+          <t>21,28; 48,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,14; 40,43</t>
+          <t>23,63; 48,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 38,6</t>
+          <t>12,61; 38,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,83</t>
+          <t>3,27; 139,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,06</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 18,75</t>
+          <t>12,78; 21,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 22,07</t>
+          <t>6,17; 15,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 15,98</t>
+          <t>3,84; 12,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,37</t>
+          <t>-2,32; 9,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,61; 42,5</t>
+          <t>29,04; 54,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,22; 46,55</t>
+          <t>10,56; 28,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,49; 36,17</t>
+          <t>7,05; 25,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,57</t>
+          <t>-6,89; 31,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,22</t>
+          <t>16,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>13,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>32,02%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,67; 20,35</t>
+          <t>13,65; 18,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 14,96</t>
+          <t>11,34; 16,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,47</t>
+          <t>9,13; 13,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -0,52</t>
+          <t>4,67; 23,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,42; 47,08</t>
+          <t>29,81; 42,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 27,33</t>
+          <t>20,6; 30,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 24,36</t>
+          <t>17,98; 29,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -0,55</t>
+          <t>13,69; 87,19</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>14,99</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,52</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,27</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>31,88%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>24,47%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>22,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-0,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>12,44; 17,36</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,25; 16,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,81; 13,62</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 0,26</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>25,89; 37,94</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>19,69; 29,67</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>16,8; 27,37</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 0,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2A_enfcro_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,92; 19,09</t>
+          <t>8,72; 19,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,67</t>
+          <t>3,77; 14,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 17,11</t>
+          <t>6,17; 17,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 7,52</t>
+          <t>-7,34; 7,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,2; 44,38</t>
+          <t>17,79; 44,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 24,43</t>
+          <t>6,15; 25,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,35; 35,89</t>
+          <t>11,35; 36,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 20,85</t>
+          <t>-17,6; 21,32</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 21,5</t>
+          <t>12,36; 21,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 20,87</t>
+          <t>12,35; 20,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 19,18</t>
+          <t>10,97; 19,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 29,53</t>
+          <t>6,67; 30,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 50,8</t>
+          <t>25,71; 50,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,24; 42,33</t>
+          <t>22,8; 42,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,15; 40,74</t>
+          <t>21,29; 43,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,05; 189,78</t>
+          <t>18,8; 201,17</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 20,26</t>
+          <t>9,48; 20,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 22,54</t>
+          <t>11,52; 22,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 16,38</t>
+          <t>6,31; 16,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 40,96</t>
+          <t>1,19; 40,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,28; 48,56</t>
+          <t>19,47; 49,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,63; 48,77</t>
+          <t>21,9; 49,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,61; 38,09</t>
+          <t>12,99; 37,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 139,76</t>
+          <t>3,6; 132,82</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 21,47</t>
+          <t>12,87; 21,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 15,22</t>
+          <t>6,76; 15,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 12,7</t>
+          <t>3,69; 12,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 9,34</t>
+          <t>-2,98; 8,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,04; 54,44</t>
+          <t>28,7; 54,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 28,52</t>
+          <t>11,36; 29,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 25,26</t>
+          <t>6,84; 25,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 31,65</t>
+          <t>-8,23; 30,33</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,65; 18,43</t>
+          <t>13,69; 18,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,34; 16,19</t>
+          <t>11,54; 16,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,94</t>
+          <t>9,3; 13,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 23,06</t>
+          <t>4,45; 22,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,81; 42,9</t>
+          <t>29,96; 42,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,6; 30,89</t>
+          <t>20,88; 30,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 29,03</t>
+          <t>18,12; 28,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,69; 87,19</t>
+          <t>12,84; 78,75</t>
         </is>
       </c>
     </row>
